--- a/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/Danh sach kham suc khoe.xlsx
+++ b/Hoàng/2025/ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG/Danh sach kham suc khoe.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA-TN\Hoàng\2025\ĐẢNG UỶ UỶ BAN NHÂN DÂN THÀNH PHỐ ĐÀ NẴNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\THUYHA\DANH SACH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A9F054B-6B3D-4073-B54D-4B2A78795355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Danh sách LĐ" sheetId="1" r:id="rId1"/>
@@ -27,26 +26,17 @@
     <definedName name="Quoctich">'[1]DM khác'!$I$3:$I$243</definedName>
     <definedName name="TinhKCB">'[1]DM tỉnh'!$B$2:$B$200</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="69">
   <si>
     <t>STT</t>
   </si>
@@ -250,13 +240,16 @@
     <t>Trương Thị Mỹ Xuyên</t>
   </si>
   <si>
-    <t>1978</t>
+    <t>048178000186</t>
+  </si>
+  <si>
+    <t>08/11/1978</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -339,40 +332,38 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -69286,1014 +69277,1006 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF548235"/>
   </sheetPr>
-  <dimension ref="A1:AMK23"/>
+  <dimension ref="A1:AMJ23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="bottomRight" activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="5.36328125" style="6" customWidth="1"/>
-    <col min="3" max="3" width="16.6328125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="23.36328125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="17.36328125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="10" style="7" customWidth="1"/>
-    <col min="8" max="963" width="9.08984375" style="10"/>
+    <col min="1" max="1" width="5.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="23.77734375" style="6" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="8" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="10" style="6" customWidth="1"/>
+    <col min="7" max="962" width="9.109375" style="9"/>
+    <col min="963" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1025" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1024" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="12" t="s">
+      <c r="B1" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="F1" s="12" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:1025" s="2" customFormat="1" ht="13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:1024" s="1" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
       <c r="A2" s="12"/>
-      <c r="B2" s="1"/>
+      <c r="B2" s="12"/>
       <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
+      <c r="D2" s="11"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
+      <c r="F2" s="12"/>
     </row>
-    <row r="3" spans="1:1025" s="5" customFormat="1" ht="13" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:1024" s="4" customFormat="1" ht="13.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
+    <row r="4" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
         <v>1</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A5" s="6">
+    <row r="5" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
         <v>2</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="F5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A6" s="6">
+    <row r="6" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A6" s="5">
         <v>3</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="C6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="D6" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="8" t="s">
+      <c r="E6" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="F6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A7" s="6">
+    <row r="7" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
         <v>4</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="E7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A8" s="6">
+    <row r="8" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
         <v>5</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="C8" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="D8" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A9" s="6">
+    <row r="9" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A9" s="5">
         <v>6</v>
       </c>
-      <c r="D9" s="7" t="s">
+      <c r="C9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="E9" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="F9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A10" s="6">
+    <row r="10" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
         <v>7</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="C10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="E10" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="F10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A11" s="6">
+    <row r="11" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
         <v>8</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F11" s="8" t="s">
+      <c r="E11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A12" s="6">
+    <row r="12" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
         <v>9</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="C12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="F12" s="8" t="s">
+      <c r="E12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="F12" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A13" s="6">
+    <row r="13" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
         <v>10</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="C13" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="F13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="6">
+    <row r="14" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
         <v>11</v>
       </c>
       <c r="B14" s="6"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
+      <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="8" t="s">
+      <c r="E14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="F14" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB14"/>
-      <c r="AKC14"/>
-      <c r="AKD14"/>
-      <c r="AKE14"/>
-      <c r="AKF14"/>
-      <c r="AKG14"/>
-      <c r="AKH14"/>
-      <c r="AKI14"/>
-      <c r="AKJ14"/>
-      <c r="AKK14"/>
-      <c r="AKL14"/>
-      <c r="AKM14"/>
-      <c r="AKN14"/>
-      <c r="AKO14"/>
-      <c r="AKP14"/>
-      <c r="AKQ14"/>
-      <c r="AKR14"/>
-      <c r="AKS14"/>
-      <c r="AKT14"/>
-      <c r="AKU14"/>
-      <c r="AKV14"/>
-      <c r="AKW14"/>
-      <c r="AKX14"/>
-      <c r="AKY14"/>
-      <c r="AKZ14"/>
-      <c r="ALA14"/>
-      <c r="ALB14"/>
-      <c r="ALC14"/>
-      <c r="ALD14"/>
-      <c r="ALE14"/>
-      <c r="ALF14"/>
-      <c r="ALG14"/>
-      <c r="ALH14"/>
-      <c r="ALI14"/>
-      <c r="ALJ14"/>
-      <c r="ALK14"/>
-      <c r="ALL14"/>
-      <c r="ALM14"/>
-      <c r="ALN14"/>
-      <c r="ALO14"/>
-      <c r="ALP14"/>
-      <c r="ALQ14"/>
-      <c r="ALR14"/>
-      <c r="ALS14"/>
-      <c r="ALT14"/>
-      <c r="ALU14"/>
-      <c r="ALV14"/>
-      <c r="ALW14"/>
-      <c r="ALX14"/>
-      <c r="ALY14"/>
-      <c r="ALZ14"/>
-      <c r="AMA14"/>
-      <c r="AMB14"/>
-      <c r="AMC14"/>
-      <c r="AMD14"/>
-      <c r="AME14"/>
-      <c r="AMF14"/>
-      <c r="AMG14"/>
-      <c r="AMH14"/>
-      <c r="AMI14"/>
-      <c r="AMJ14"/>
-      <c r="AMK14"/>
+      <c r="AKA14" s="10"/>
+      <c r="AKB14" s="10"/>
+      <c r="AKC14" s="10"/>
+      <c r="AKD14" s="10"/>
+      <c r="AKE14" s="10"/>
+      <c r="AKF14" s="10"/>
+      <c r="AKG14" s="10"/>
+      <c r="AKH14" s="10"/>
+      <c r="AKI14" s="10"/>
+      <c r="AKJ14" s="10"/>
+      <c r="AKK14" s="10"/>
+      <c r="AKL14" s="10"/>
+      <c r="AKM14" s="10"/>
+      <c r="AKN14" s="10"/>
+      <c r="AKO14" s="10"/>
+      <c r="AKP14" s="10"/>
+      <c r="AKQ14" s="10"/>
+      <c r="AKR14" s="10"/>
+      <c r="AKS14" s="10"/>
+      <c r="AKT14" s="10"/>
+      <c r="AKU14" s="10"/>
+      <c r="AKV14" s="10"/>
+      <c r="AKW14" s="10"/>
+      <c r="AKX14" s="10"/>
+      <c r="AKY14" s="10"/>
+      <c r="AKZ14" s="10"/>
+      <c r="ALA14" s="10"/>
+      <c r="ALB14" s="10"/>
+      <c r="ALC14" s="10"/>
+      <c r="ALD14" s="10"/>
+      <c r="ALE14" s="10"/>
+      <c r="ALF14" s="10"/>
+      <c r="ALG14" s="10"/>
+      <c r="ALH14" s="10"/>
+      <c r="ALI14" s="10"/>
+      <c r="ALJ14" s="10"/>
+      <c r="ALK14" s="10"/>
+      <c r="ALL14" s="10"/>
+      <c r="ALM14" s="10"/>
+      <c r="ALN14" s="10"/>
+      <c r="ALO14" s="10"/>
+      <c r="ALP14" s="10"/>
+      <c r="ALQ14" s="10"/>
+      <c r="ALR14" s="10"/>
+      <c r="ALS14" s="10"/>
+      <c r="ALT14" s="10"/>
+      <c r="ALU14" s="10"/>
+      <c r="ALV14" s="10"/>
+      <c r="ALW14" s="10"/>
+      <c r="ALX14" s="10"/>
+      <c r="ALY14" s="10"/>
+      <c r="ALZ14" s="10"/>
+      <c r="AMA14" s="10"/>
+      <c r="AMB14" s="10"/>
+      <c r="AMC14" s="10"/>
+      <c r="AMD14" s="10"/>
+      <c r="AME14" s="10"/>
+      <c r="AMF14" s="10"/>
+      <c r="AMG14" s="10"/>
+      <c r="AMH14" s="10"/>
+      <c r="AMI14" s="10"/>
+      <c r="AMJ14" s="10"/>
     </row>
-    <row r="15" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="6">
+    <row r="15" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="5">
         <v>12</v>
       </c>
       <c r="B15" s="6"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
+      <c r="C15" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="8" t="s">
+      <c r="E15" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="F15" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB15"/>
-      <c r="AKC15"/>
-      <c r="AKD15"/>
-      <c r="AKE15"/>
-      <c r="AKF15"/>
-      <c r="AKG15"/>
-      <c r="AKH15"/>
-      <c r="AKI15"/>
-      <c r="AKJ15"/>
-      <c r="AKK15"/>
-      <c r="AKL15"/>
-      <c r="AKM15"/>
-      <c r="AKN15"/>
-      <c r="AKO15"/>
-      <c r="AKP15"/>
-      <c r="AKQ15"/>
-      <c r="AKR15"/>
-      <c r="AKS15"/>
-      <c r="AKT15"/>
-      <c r="AKU15"/>
-      <c r="AKV15"/>
-      <c r="AKW15"/>
-      <c r="AKX15"/>
-      <c r="AKY15"/>
-      <c r="AKZ15"/>
-      <c r="ALA15"/>
-      <c r="ALB15"/>
-      <c r="ALC15"/>
-      <c r="ALD15"/>
-      <c r="ALE15"/>
-      <c r="ALF15"/>
-      <c r="ALG15"/>
-      <c r="ALH15"/>
-      <c r="ALI15"/>
-      <c r="ALJ15"/>
-      <c r="ALK15"/>
-      <c r="ALL15"/>
-      <c r="ALM15"/>
-      <c r="ALN15"/>
-      <c r="ALO15"/>
-      <c r="ALP15"/>
-      <c r="ALQ15"/>
-      <c r="ALR15"/>
-      <c r="ALS15"/>
-      <c r="ALT15"/>
-      <c r="ALU15"/>
-      <c r="ALV15"/>
-      <c r="ALW15"/>
-      <c r="ALX15"/>
-      <c r="ALY15"/>
-      <c r="ALZ15"/>
-      <c r="AMA15"/>
-      <c r="AMB15"/>
-      <c r="AMC15"/>
-      <c r="AMD15"/>
-      <c r="AME15"/>
-      <c r="AMF15"/>
-      <c r="AMG15"/>
-      <c r="AMH15"/>
-      <c r="AMI15"/>
-      <c r="AMJ15"/>
-      <c r="AMK15"/>
+      <c r="AKA15" s="10"/>
+      <c r="AKB15" s="10"/>
+      <c r="AKC15" s="10"/>
+      <c r="AKD15" s="10"/>
+      <c r="AKE15" s="10"/>
+      <c r="AKF15" s="10"/>
+      <c r="AKG15" s="10"/>
+      <c r="AKH15" s="10"/>
+      <c r="AKI15" s="10"/>
+      <c r="AKJ15" s="10"/>
+      <c r="AKK15" s="10"/>
+      <c r="AKL15" s="10"/>
+      <c r="AKM15" s="10"/>
+      <c r="AKN15" s="10"/>
+      <c r="AKO15" s="10"/>
+      <c r="AKP15" s="10"/>
+      <c r="AKQ15" s="10"/>
+      <c r="AKR15" s="10"/>
+      <c r="AKS15" s="10"/>
+      <c r="AKT15" s="10"/>
+      <c r="AKU15" s="10"/>
+      <c r="AKV15" s="10"/>
+      <c r="AKW15" s="10"/>
+      <c r="AKX15" s="10"/>
+      <c r="AKY15" s="10"/>
+      <c r="AKZ15" s="10"/>
+      <c r="ALA15" s="10"/>
+      <c r="ALB15" s="10"/>
+      <c r="ALC15" s="10"/>
+      <c r="ALD15" s="10"/>
+      <c r="ALE15" s="10"/>
+      <c r="ALF15" s="10"/>
+      <c r="ALG15" s="10"/>
+      <c r="ALH15" s="10"/>
+      <c r="ALI15" s="10"/>
+      <c r="ALJ15" s="10"/>
+      <c r="ALK15" s="10"/>
+      <c r="ALL15" s="10"/>
+      <c r="ALM15" s="10"/>
+      <c r="ALN15" s="10"/>
+      <c r="ALO15" s="10"/>
+      <c r="ALP15" s="10"/>
+      <c r="ALQ15" s="10"/>
+      <c r="ALR15" s="10"/>
+      <c r="ALS15" s="10"/>
+      <c r="ALT15" s="10"/>
+      <c r="ALU15" s="10"/>
+      <c r="ALV15" s="10"/>
+      <c r="ALW15" s="10"/>
+      <c r="ALX15" s="10"/>
+      <c r="ALY15" s="10"/>
+      <c r="ALZ15" s="10"/>
+      <c r="AMA15" s="10"/>
+      <c r="AMB15" s="10"/>
+      <c r="AMC15" s="10"/>
+      <c r="AMD15" s="10"/>
+      <c r="AME15" s="10"/>
+      <c r="AMF15" s="10"/>
+      <c r="AMG15" s="10"/>
+      <c r="AMH15" s="10"/>
+      <c r="AMI15" s="10"/>
+      <c r="AMJ15" s="10"/>
     </row>
-    <row r="16" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="6">
+    <row r="16" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
         <v>13</v>
       </c>
       <c r="B16" s="6"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="E16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="F16" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB16"/>
-      <c r="AKC16"/>
-      <c r="AKD16"/>
-      <c r="AKE16"/>
-      <c r="AKF16"/>
-      <c r="AKG16"/>
-      <c r="AKH16"/>
-      <c r="AKI16"/>
-      <c r="AKJ16"/>
-      <c r="AKK16"/>
-      <c r="AKL16"/>
-      <c r="AKM16"/>
-      <c r="AKN16"/>
-      <c r="AKO16"/>
-      <c r="AKP16"/>
-      <c r="AKQ16"/>
-      <c r="AKR16"/>
-      <c r="AKS16"/>
-      <c r="AKT16"/>
-      <c r="AKU16"/>
-      <c r="AKV16"/>
-      <c r="AKW16"/>
-      <c r="AKX16"/>
-      <c r="AKY16"/>
-      <c r="AKZ16"/>
-      <c r="ALA16"/>
-      <c r="ALB16"/>
-      <c r="ALC16"/>
-      <c r="ALD16"/>
-      <c r="ALE16"/>
-      <c r="ALF16"/>
-      <c r="ALG16"/>
-      <c r="ALH16"/>
-      <c r="ALI16"/>
-      <c r="ALJ16"/>
-      <c r="ALK16"/>
-      <c r="ALL16"/>
-      <c r="ALM16"/>
-      <c r="ALN16"/>
-      <c r="ALO16"/>
-      <c r="ALP16"/>
-      <c r="ALQ16"/>
-      <c r="ALR16"/>
-      <c r="ALS16"/>
-      <c r="ALT16"/>
-      <c r="ALU16"/>
-      <c r="ALV16"/>
-      <c r="ALW16"/>
-      <c r="ALX16"/>
-      <c r="ALY16"/>
-      <c r="ALZ16"/>
-      <c r="AMA16"/>
-      <c r="AMB16"/>
-      <c r="AMC16"/>
-      <c r="AMD16"/>
-      <c r="AME16"/>
-      <c r="AMF16"/>
-      <c r="AMG16"/>
-      <c r="AMH16"/>
-      <c r="AMI16"/>
-      <c r="AMJ16"/>
-      <c r="AMK16"/>
+      <c r="AKA16" s="10"/>
+      <c r="AKB16" s="10"/>
+      <c r="AKC16" s="10"/>
+      <c r="AKD16" s="10"/>
+      <c r="AKE16" s="10"/>
+      <c r="AKF16" s="10"/>
+      <c r="AKG16" s="10"/>
+      <c r="AKH16" s="10"/>
+      <c r="AKI16" s="10"/>
+      <c r="AKJ16" s="10"/>
+      <c r="AKK16" s="10"/>
+      <c r="AKL16" s="10"/>
+      <c r="AKM16" s="10"/>
+      <c r="AKN16" s="10"/>
+      <c r="AKO16" s="10"/>
+      <c r="AKP16" s="10"/>
+      <c r="AKQ16" s="10"/>
+      <c r="AKR16" s="10"/>
+      <c r="AKS16" s="10"/>
+      <c r="AKT16" s="10"/>
+      <c r="AKU16" s="10"/>
+      <c r="AKV16" s="10"/>
+      <c r="AKW16" s="10"/>
+      <c r="AKX16" s="10"/>
+      <c r="AKY16" s="10"/>
+      <c r="AKZ16" s="10"/>
+      <c r="ALA16" s="10"/>
+      <c r="ALB16" s="10"/>
+      <c r="ALC16" s="10"/>
+      <c r="ALD16" s="10"/>
+      <c r="ALE16" s="10"/>
+      <c r="ALF16" s="10"/>
+      <c r="ALG16" s="10"/>
+      <c r="ALH16" s="10"/>
+      <c r="ALI16" s="10"/>
+      <c r="ALJ16" s="10"/>
+      <c r="ALK16" s="10"/>
+      <c r="ALL16" s="10"/>
+      <c r="ALM16" s="10"/>
+      <c r="ALN16" s="10"/>
+      <c r="ALO16" s="10"/>
+      <c r="ALP16" s="10"/>
+      <c r="ALQ16" s="10"/>
+      <c r="ALR16" s="10"/>
+      <c r="ALS16" s="10"/>
+      <c r="ALT16" s="10"/>
+      <c r="ALU16" s="10"/>
+      <c r="ALV16" s="10"/>
+      <c r="ALW16" s="10"/>
+      <c r="ALX16" s="10"/>
+      <c r="ALY16" s="10"/>
+      <c r="ALZ16" s="10"/>
+      <c r="AMA16" s="10"/>
+      <c r="AMB16" s="10"/>
+      <c r="AMC16" s="10"/>
+      <c r="AMD16" s="10"/>
+      <c r="AME16" s="10"/>
+      <c r="AMF16" s="10"/>
+      <c r="AMG16" s="10"/>
+      <c r="AMH16" s="10"/>
+      <c r="AMI16" s="10"/>
+      <c r="AMJ16" s="10"/>
     </row>
-    <row r="17" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="6">
+    <row r="17" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
         <v>14</v>
       </c>
       <c r="B17" s="6"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
+      <c r="C17" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="8" t="s">
+      <c r="E17" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="F17" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB17"/>
-      <c r="AKC17"/>
-      <c r="AKD17"/>
-      <c r="AKE17"/>
-      <c r="AKF17"/>
-      <c r="AKG17"/>
-      <c r="AKH17"/>
-      <c r="AKI17"/>
-      <c r="AKJ17"/>
-      <c r="AKK17"/>
-      <c r="AKL17"/>
-      <c r="AKM17"/>
-      <c r="AKN17"/>
-      <c r="AKO17"/>
-      <c r="AKP17"/>
-      <c r="AKQ17"/>
-      <c r="AKR17"/>
-      <c r="AKS17"/>
-      <c r="AKT17"/>
-      <c r="AKU17"/>
-      <c r="AKV17"/>
-      <c r="AKW17"/>
-      <c r="AKX17"/>
-      <c r="AKY17"/>
-      <c r="AKZ17"/>
-      <c r="ALA17"/>
-      <c r="ALB17"/>
-      <c r="ALC17"/>
-      <c r="ALD17"/>
-      <c r="ALE17"/>
-      <c r="ALF17"/>
-      <c r="ALG17"/>
-      <c r="ALH17"/>
-      <c r="ALI17"/>
-      <c r="ALJ17"/>
-      <c r="ALK17"/>
-      <c r="ALL17"/>
-      <c r="ALM17"/>
-      <c r="ALN17"/>
-      <c r="ALO17"/>
-      <c r="ALP17"/>
-      <c r="ALQ17"/>
-      <c r="ALR17"/>
-      <c r="ALS17"/>
-      <c r="ALT17"/>
-      <c r="ALU17"/>
-      <c r="ALV17"/>
-      <c r="ALW17"/>
-      <c r="ALX17"/>
-      <c r="ALY17"/>
-      <c r="ALZ17"/>
-      <c r="AMA17"/>
-      <c r="AMB17"/>
-      <c r="AMC17"/>
-      <c r="AMD17"/>
-      <c r="AME17"/>
-      <c r="AMF17"/>
-      <c r="AMG17"/>
-      <c r="AMH17"/>
-      <c r="AMI17"/>
-      <c r="AMJ17"/>
-      <c r="AMK17"/>
+      <c r="AKA17" s="10"/>
+      <c r="AKB17" s="10"/>
+      <c r="AKC17" s="10"/>
+      <c r="AKD17" s="10"/>
+      <c r="AKE17" s="10"/>
+      <c r="AKF17" s="10"/>
+      <c r="AKG17" s="10"/>
+      <c r="AKH17" s="10"/>
+      <c r="AKI17" s="10"/>
+      <c r="AKJ17" s="10"/>
+      <c r="AKK17" s="10"/>
+      <c r="AKL17" s="10"/>
+      <c r="AKM17" s="10"/>
+      <c r="AKN17" s="10"/>
+      <c r="AKO17" s="10"/>
+      <c r="AKP17" s="10"/>
+      <c r="AKQ17" s="10"/>
+      <c r="AKR17" s="10"/>
+      <c r="AKS17" s="10"/>
+      <c r="AKT17" s="10"/>
+      <c r="AKU17" s="10"/>
+      <c r="AKV17" s="10"/>
+      <c r="AKW17" s="10"/>
+      <c r="AKX17" s="10"/>
+      <c r="AKY17" s="10"/>
+      <c r="AKZ17" s="10"/>
+      <c r="ALA17" s="10"/>
+      <c r="ALB17" s="10"/>
+      <c r="ALC17" s="10"/>
+      <c r="ALD17" s="10"/>
+      <c r="ALE17" s="10"/>
+      <c r="ALF17" s="10"/>
+      <c r="ALG17" s="10"/>
+      <c r="ALH17" s="10"/>
+      <c r="ALI17" s="10"/>
+      <c r="ALJ17" s="10"/>
+      <c r="ALK17" s="10"/>
+      <c r="ALL17" s="10"/>
+      <c r="ALM17" s="10"/>
+      <c r="ALN17" s="10"/>
+      <c r="ALO17" s="10"/>
+      <c r="ALP17" s="10"/>
+      <c r="ALQ17" s="10"/>
+      <c r="ALR17" s="10"/>
+      <c r="ALS17" s="10"/>
+      <c r="ALT17" s="10"/>
+      <c r="ALU17" s="10"/>
+      <c r="ALV17" s="10"/>
+      <c r="ALW17" s="10"/>
+      <c r="ALX17" s="10"/>
+      <c r="ALY17" s="10"/>
+      <c r="ALZ17" s="10"/>
+      <c r="AMA17" s="10"/>
+      <c r="AMB17" s="10"/>
+      <c r="AMC17" s="10"/>
+      <c r="AMD17" s="10"/>
+      <c r="AME17" s="10"/>
+      <c r="AMF17" s="10"/>
+      <c r="AMG17" s="10"/>
+      <c r="AMH17" s="10"/>
+      <c r="AMI17" s="10"/>
+      <c r="AMJ17" s="10"/>
     </row>
-    <row r="18" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="6">
+    <row r="18" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="5">
         <v>15</v>
       </c>
       <c r="B18" s="6"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
+      <c r="C18" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="8" t="s">
+      <c r="E18" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="F18" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB18"/>
-      <c r="AKC18"/>
-      <c r="AKD18"/>
-      <c r="AKE18"/>
-      <c r="AKF18"/>
-      <c r="AKG18"/>
-      <c r="AKH18"/>
-      <c r="AKI18"/>
-      <c r="AKJ18"/>
-      <c r="AKK18"/>
-      <c r="AKL18"/>
-      <c r="AKM18"/>
-      <c r="AKN18"/>
-      <c r="AKO18"/>
-      <c r="AKP18"/>
-      <c r="AKQ18"/>
-      <c r="AKR18"/>
-      <c r="AKS18"/>
-      <c r="AKT18"/>
-      <c r="AKU18"/>
-      <c r="AKV18"/>
-      <c r="AKW18"/>
-      <c r="AKX18"/>
-      <c r="AKY18"/>
-      <c r="AKZ18"/>
-      <c r="ALA18"/>
-      <c r="ALB18"/>
-      <c r="ALC18"/>
-      <c r="ALD18"/>
-      <c r="ALE18"/>
-      <c r="ALF18"/>
-      <c r="ALG18"/>
-      <c r="ALH18"/>
-      <c r="ALI18"/>
-      <c r="ALJ18"/>
-      <c r="ALK18"/>
-      <c r="ALL18"/>
-      <c r="ALM18"/>
-      <c r="ALN18"/>
-      <c r="ALO18"/>
-      <c r="ALP18"/>
-      <c r="ALQ18"/>
-      <c r="ALR18"/>
-      <c r="ALS18"/>
-      <c r="ALT18"/>
-      <c r="ALU18"/>
-      <c r="ALV18"/>
-      <c r="ALW18"/>
-      <c r="ALX18"/>
-      <c r="ALY18"/>
-      <c r="ALZ18"/>
-      <c r="AMA18"/>
-      <c r="AMB18"/>
-      <c r="AMC18"/>
-      <c r="AMD18"/>
-      <c r="AME18"/>
-      <c r="AMF18"/>
-      <c r="AMG18"/>
-      <c r="AMH18"/>
-      <c r="AMI18"/>
-      <c r="AMJ18"/>
-      <c r="AMK18"/>
+      <c r="AKA18" s="10"/>
+      <c r="AKB18" s="10"/>
+      <c r="AKC18" s="10"/>
+      <c r="AKD18" s="10"/>
+      <c r="AKE18" s="10"/>
+      <c r="AKF18" s="10"/>
+      <c r="AKG18" s="10"/>
+      <c r="AKH18" s="10"/>
+      <c r="AKI18" s="10"/>
+      <c r="AKJ18" s="10"/>
+      <c r="AKK18" s="10"/>
+      <c r="AKL18" s="10"/>
+      <c r="AKM18" s="10"/>
+      <c r="AKN18" s="10"/>
+      <c r="AKO18" s="10"/>
+      <c r="AKP18" s="10"/>
+      <c r="AKQ18" s="10"/>
+      <c r="AKR18" s="10"/>
+      <c r="AKS18" s="10"/>
+      <c r="AKT18" s="10"/>
+      <c r="AKU18" s="10"/>
+      <c r="AKV18" s="10"/>
+      <c r="AKW18" s="10"/>
+      <c r="AKX18" s="10"/>
+      <c r="AKY18" s="10"/>
+      <c r="AKZ18" s="10"/>
+      <c r="ALA18" s="10"/>
+      <c r="ALB18" s="10"/>
+      <c r="ALC18" s="10"/>
+      <c r="ALD18" s="10"/>
+      <c r="ALE18" s="10"/>
+      <c r="ALF18" s="10"/>
+      <c r="ALG18" s="10"/>
+      <c r="ALH18" s="10"/>
+      <c r="ALI18" s="10"/>
+      <c r="ALJ18" s="10"/>
+      <c r="ALK18" s="10"/>
+      <c r="ALL18" s="10"/>
+      <c r="ALM18" s="10"/>
+      <c r="ALN18" s="10"/>
+      <c r="ALO18" s="10"/>
+      <c r="ALP18" s="10"/>
+      <c r="ALQ18" s="10"/>
+      <c r="ALR18" s="10"/>
+      <c r="ALS18" s="10"/>
+      <c r="ALT18" s="10"/>
+      <c r="ALU18" s="10"/>
+      <c r="ALV18" s="10"/>
+      <c r="ALW18" s="10"/>
+      <c r="ALX18" s="10"/>
+      <c r="ALY18" s="10"/>
+      <c r="ALZ18" s="10"/>
+      <c r="AMA18" s="10"/>
+      <c r="AMB18" s="10"/>
+      <c r="AMC18" s="10"/>
+      <c r="AMD18" s="10"/>
+      <c r="AME18" s="10"/>
+      <c r="AMF18" s="10"/>
+      <c r="AMG18" s="10"/>
+      <c r="AMH18" s="10"/>
+      <c r="AMI18" s="10"/>
+      <c r="AMJ18" s="10"/>
     </row>
-    <row r="19" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="6">
+    <row r="19" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
         <v>16</v>
       </c>
       <c r="B19" s="6"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7" t="s">
+      <c r="C19" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="E19" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="G19" s="7" t="s">
+      <c r="F19" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB19"/>
-      <c r="AKC19"/>
-      <c r="AKD19"/>
-      <c r="AKE19"/>
-      <c r="AKF19"/>
-      <c r="AKG19"/>
-      <c r="AKH19"/>
-      <c r="AKI19"/>
-      <c r="AKJ19"/>
-      <c r="AKK19"/>
-      <c r="AKL19"/>
-      <c r="AKM19"/>
-      <c r="AKN19"/>
-      <c r="AKO19"/>
-      <c r="AKP19"/>
-      <c r="AKQ19"/>
-      <c r="AKR19"/>
-      <c r="AKS19"/>
-      <c r="AKT19"/>
-      <c r="AKU19"/>
-      <c r="AKV19"/>
-      <c r="AKW19"/>
-      <c r="AKX19"/>
-      <c r="AKY19"/>
-      <c r="AKZ19"/>
-      <c r="ALA19"/>
-      <c r="ALB19"/>
-      <c r="ALC19"/>
-      <c r="ALD19"/>
-      <c r="ALE19"/>
-      <c r="ALF19"/>
-      <c r="ALG19"/>
-      <c r="ALH19"/>
-      <c r="ALI19"/>
-      <c r="ALJ19"/>
-      <c r="ALK19"/>
-      <c r="ALL19"/>
-      <c r="ALM19"/>
-      <c r="ALN19"/>
-      <c r="ALO19"/>
-      <c r="ALP19"/>
-      <c r="ALQ19"/>
-      <c r="ALR19"/>
-      <c r="ALS19"/>
-      <c r="ALT19"/>
-      <c r="ALU19"/>
-      <c r="ALV19"/>
-      <c r="ALW19"/>
-      <c r="ALX19"/>
-      <c r="ALY19"/>
-      <c r="ALZ19"/>
-      <c r="AMA19"/>
-      <c r="AMB19"/>
-      <c r="AMC19"/>
-      <c r="AMD19"/>
-      <c r="AME19"/>
-      <c r="AMF19"/>
-      <c r="AMG19"/>
-      <c r="AMH19"/>
-      <c r="AMI19"/>
-      <c r="AMJ19"/>
-      <c r="AMK19"/>
+      <c r="AKA19" s="10"/>
+      <c r="AKB19" s="10"/>
+      <c r="AKC19" s="10"/>
+      <c r="AKD19" s="10"/>
+      <c r="AKE19" s="10"/>
+      <c r="AKF19" s="10"/>
+      <c r="AKG19" s="10"/>
+      <c r="AKH19" s="10"/>
+      <c r="AKI19" s="10"/>
+      <c r="AKJ19" s="10"/>
+      <c r="AKK19" s="10"/>
+      <c r="AKL19" s="10"/>
+      <c r="AKM19" s="10"/>
+      <c r="AKN19" s="10"/>
+      <c r="AKO19" s="10"/>
+      <c r="AKP19" s="10"/>
+      <c r="AKQ19" s="10"/>
+      <c r="AKR19" s="10"/>
+      <c r="AKS19" s="10"/>
+      <c r="AKT19" s="10"/>
+      <c r="AKU19" s="10"/>
+      <c r="AKV19" s="10"/>
+      <c r="AKW19" s="10"/>
+      <c r="AKX19" s="10"/>
+      <c r="AKY19" s="10"/>
+      <c r="AKZ19" s="10"/>
+      <c r="ALA19" s="10"/>
+      <c r="ALB19" s="10"/>
+      <c r="ALC19" s="10"/>
+      <c r="ALD19" s="10"/>
+      <c r="ALE19" s="10"/>
+      <c r="ALF19" s="10"/>
+      <c r="ALG19" s="10"/>
+      <c r="ALH19" s="10"/>
+      <c r="ALI19" s="10"/>
+      <c r="ALJ19" s="10"/>
+      <c r="ALK19" s="10"/>
+      <c r="ALL19" s="10"/>
+      <c r="ALM19" s="10"/>
+      <c r="ALN19" s="10"/>
+      <c r="ALO19" s="10"/>
+      <c r="ALP19" s="10"/>
+      <c r="ALQ19" s="10"/>
+      <c r="ALR19" s="10"/>
+      <c r="ALS19" s="10"/>
+      <c r="ALT19" s="10"/>
+      <c r="ALU19" s="10"/>
+      <c r="ALV19" s="10"/>
+      <c r="ALW19" s="10"/>
+      <c r="ALX19" s="10"/>
+      <c r="ALY19" s="10"/>
+      <c r="ALZ19" s="10"/>
+      <c r="AMA19" s="10"/>
+      <c r="AMB19" s="10"/>
+      <c r="AMC19" s="10"/>
+      <c r="AMD19" s="10"/>
+      <c r="AME19" s="10"/>
+      <c r="AMF19" s="10"/>
+      <c r="AMG19" s="10"/>
+      <c r="AMH19" s="10"/>
+      <c r="AMI19" s="10"/>
+      <c r="AMJ19" s="10"/>
     </row>
-    <row r="20" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="6">
+    <row r="20" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
         <v>17</v>
       </c>
       <c r="B20" s="6"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7" t="s">
+      <c r="C20" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="F20" s="8" t="s">
+      <c r="E20" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="F20" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB20"/>
-      <c r="AKC20"/>
-      <c r="AKD20"/>
-      <c r="AKE20"/>
-      <c r="AKF20"/>
-      <c r="AKG20"/>
-      <c r="AKH20"/>
-      <c r="AKI20"/>
-      <c r="AKJ20"/>
-      <c r="AKK20"/>
-      <c r="AKL20"/>
-      <c r="AKM20"/>
-      <c r="AKN20"/>
-      <c r="AKO20"/>
-      <c r="AKP20"/>
-      <c r="AKQ20"/>
-      <c r="AKR20"/>
-      <c r="AKS20"/>
-      <c r="AKT20"/>
-      <c r="AKU20"/>
-      <c r="AKV20"/>
-      <c r="AKW20"/>
-      <c r="AKX20"/>
-      <c r="AKY20"/>
-      <c r="AKZ20"/>
-      <c r="ALA20"/>
-      <c r="ALB20"/>
-      <c r="ALC20"/>
-      <c r="ALD20"/>
-      <c r="ALE20"/>
-      <c r="ALF20"/>
-      <c r="ALG20"/>
-      <c r="ALH20"/>
-      <c r="ALI20"/>
-      <c r="ALJ20"/>
-      <c r="ALK20"/>
-      <c r="ALL20"/>
-      <c r="ALM20"/>
-      <c r="ALN20"/>
-      <c r="ALO20"/>
-      <c r="ALP20"/>
-      <c r="ALQ20"/>
-      <c r="ALR20"/>
-      <c r="ALS20"/>
-      <c r="ALT20"/>
-      <c r="ALU20"/>
-      <c r="ALV20"/>
-      <c r="ALW20"/>
-      <c r="ALX20"/>
-      <c r="ALY20"/>
-      <c r="ALZ20"/>
-      <c r="AMA20"/>
-      <c r="AMB20"/>
-      <c r="AMC20"/>
-      <c r="AMD20"/>
-      <c r="AME20"/>
-      <c r="AMF20"/>
-      <c r="AMG20"/>
-      <c r="AMH20"/>
-      <c r="AMI20"/>
-      <c r="AMJ20"/>
-      <c r="AMK20"/>
+      <c r="AKA20" s="10"/>
+      <c r="AKB20" s="10"/>
+      <c r="AKC20" s="10"/>
+      <c r="AKD20" s="10"/>
+      <c r="AKE20" s="10"/>
+      <c r="AKF20" s="10"/>
+      <c r="AKG20" s="10"/>
+      <c r="AKH20" s="10"/>
+      <c r="AKI20" s="10"/>
+      <c r="AKJ20" s="10"/>
+      <c r="AKK20" s="10"/>
+      <c r="AKL20" s="10"/>
+      <c r="AKM20" s="10"/>
+      <c r="AKN20" s="10"/>
+      <c r="AKO20" s="10"/>
+      <c r="AKP20" s="10"/>
+      <c r="AKQ20" s="10"/>
+      <c r="AKR20" s="10"/>
+      <c r="AKS20" s="10"/>
+      <c r="AKT20" s="10"/>
+      <c r="AKU20" s="10"/>
+      <c r="AKV20" s="10"/>
+      <c r="AKW20" s="10"/>
+      <c r="AKX20" s="10"/>
+      <c r="AKY20" s="10"/>
+      <c r="AKZ20" s="10"/>
+      <c r="ALA20" s="10"/>
+      <c r="ALB20" s="10"/>
+      <c r="ALC20" s="10"/>
+      <c r="ALD20" s="10"/>
+      <c r="ALE20" s="10"/>
+      <c r="ALF20" s="10"/>
+      <c r="ALG20" s="10"/>
+      <c r="ALH20" s="10"/>
+      <c r="ALI20" s="10"/>
+      <c r="ALJ20" s="10"/>
+      <c r="ALK20" s="10"/>
+      <c r="ALL20" s="10"/>
+      <c r="ALM20" s="10"/>
+      <c r="ALN20" s="10"/>
+      <c r="ALO20" s="10"/>
+      <c r="ALP20" s="10"/>
+      <c r="ALQ20" s="10"/>
+      <c r="ALR20" s="10"/>
+      <c r="ALS20" s="10"/>
+      <c r="ALT20" s="10"/>
+      <c r="ALU20" s="10"/>
+      <c r="ALV20" s="10"/>
+      <c r="ALW20" s="10"/>
+      <c r="ALX20" s="10"/>
+      <c r="ALY20" s="10"/>
+      <c r="ALZ20" s="10"/>
+      <c r="AMA20" s="10"/>
+      <c r="AMB20" s="10"/>
+      <c r="AMC20" s="10"/>
+      <c r="AMD20" s="10"/>
+      <c r="AME20" s="10"/>
+      <c r="AMF20" s="10"/>
+      <c r="AMG20" s="10"/>
+      <c r="AMH20" s="10"/>
+      <c r="AMI20" s="10"/>
+      <c r="AMJ20" s="10"/>
     </row>
-    <row r="21" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6">
+    <row r="21" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="5">
         <v>18</v>
       </c>
       <c r="B21" s="6"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="8" t="s">
+      <c r="E21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="7" t="s">
+      <c r="F21" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB21"/>
-      <c r="AKC21"/>
-      <c r="AKD21"/>
-      <c r="AKE21"/>
-      <c r="AKF21"/>
-      <c r="AKG21"/>
-      <c r="AKH21"/>
-      <c r="AKI21"/>
-      <c r="AKJ21"/>
-      <c r="AKK21"/>
-      <c r="AKL21"/>
-      <c r="AKM21"/>
-      <c r="AKN21"/>
-      <c r="AKO21"/>
-      <c r="AKP21"/>
-      <c r="AKQ21"/>
-      <c r="AKR21"/>
-      <c r="AKS21"/>
-      <c r="AKT21"/>
-      <c r="AKU21"/>
-      <c r="AKV21"/>
-      <c r="AKW21"/>
-      <c r="AKX21"/>
-      <c r="AKY21"/>
-      <c r="AKZ21"/>
-      <c r="ALA21"/>
-      <c r="ALB21"/>
-      <c r="ALC21"/>
-      <c r="ALD21"/>
-      <c r="ALE21"/>
-      <c r="ALF21"/>
-      <c r="ALG21"/>
-      <c r="ALH21"/>
-      <c r="ALI21"/>
-      <c r="ALJ21"/>
-      <c r="ALK21"/>
-      <c r="ALL21"/>
-      <c r="ALM21"/>
-      <c r="ALN21"/>
-      <c r="ALO21"/>
-      <c r="ALP21"/>
-      <c r="ALQ21"/>
-      <c r="ALR21"/>
-      <c r="ALS21"/>
-      <c r="ALT21"/>
-      <c r="ALU21"/>
-      <c r="ALV21"/>
-      <c r="ALW21"/>
-      <c r="ALX21"/>
-      <c r="ALY21"/>
-      <c r="ALZ21"/>
-      <c r="AMA21"/>
-      <c r="AMB21"/>
-      <c r="AMC21"/>
-      <c r="AMD21"/>
-      <c r="AME21"/>
-      <c r="AMF21"/>
-      <c r="AMG21"/>
-      <c r="AMH21"/>
-      <c r="AMI21"/>
-      <c r="AMJ21"/>
-      <c r="AMK21"/>
+      <c r="AKA21" s="10"/>
+      <c r="AKB21" s="10"/>
+      <c r="AKC21" s="10"/>
+      <c r="AKD21" s="10"/>
+      <c r="AKE21" s="10"/>
+      <c r="AKF21" s="10"/>
+      <c r="AKG21" s="10"/>
+      <c r="AKH21" s="10"/>
+      <c r="AKI21" s="10"/>
+      <c r="AKJ21" s="10"/>
+      <c r="AKK21" s="10"/>
+      <c r="AKL21" s="10"/>
+      <c r="AKM21" s="10"/>
+      <c r="AKN21" s="10"/>
+      <c r="AKO21" s="10"/>
+      <c r="AKP21" s="10"/>
+      <c r="AKQ21" s="10"/>
+      <c r="AKR21" s="10"/>
+      <c r="AKS21" s="10"/>
+      <c r="AKT21" s="10"/>
+      <c r="AKU21" s="10"/>
+      <c r="AKV21" s="10"/>
+      <c r="AKW21" s="10"/>
+      <c r="AKX21" s="10"/>
+      <c r="AKY21" s="10"/>
+      <c r="AKZ21" s="10"/>
+      <c r="ALA21" s="10"/>
+      <c r="ALB21" s="10"/>
+      <c r="ALC21" s="10"/>
+      <c r="ALD21" s="10"/>
+      <c r="ALE21" s="10"/>
+      <c r="ALF21" s="10"/>
+      <c r="ALG21" s="10"/>
+      <c r="ALH21" s="10"/>
+      <c r="ALI21" s="10"/>
+      <c r="ALJ21" s="10"/>
+      <c r="ALK21" s="10"/>
+      <c r="ALL21" s="10"/>
+      <c r="ALM21" s="10"/>
+      <c r="ALN21" s="10"/>
+      <c r="ALO21" s="10"/>
+      <c r="ALP21" s="10"/>
+      <c r="ALQ21" s="10"/>
+      <c r="ALR21" s="10"/>
+      <c r="ALS21" s="10"/>
+      <c r="ALT21" s="10"/>
+      <c r="ALU21" s="10"/>
+      <c r="ALV21" s="10"/>
+      <c r="ALW21" s="10"/>
+      <c r="ALX21" s="10"/>
+      <c r="ALY21" s="10"/>
+      <c r="ALZ21" s="10"/>
+      <c r="AMA21" s="10"/>
+      <c r="AMB21" s="10"/>
+      <c r="AMC21" s="10"/>
+      <c r="AMD21" s="10"/>
+      <c r="AME21" s="10"/>
+      <c r="AMF21" s="10"/>
+      <c r="AMG21" s="10"/>
+      <c r="AMH21" s="10"/>
+      <c r="AMI21" s="10"/>
+      <c r="AMJ21" s="10"/>
     </row>
-    <row r="22" spans="1:1025" s="10" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="6">
+    <row r="22" spans="1:1024" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
         <v>19</v>
       </c>
       <c r="B22" s="6"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7" t="s">
+      <c r="C22" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="F22" s="8" t="s">
+      <c r="E22" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="F22" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="AKB22"/>
-      <c r="AKC22"/>
-      <c r="AKD22"/>
-      <c r="AKE22"/>
-      <c r="AKF22"/>
-      <c r="AKG22"/>
-      <c r="AKH22"/>
-      <c r="AKI22"/>
-      <c r="AKJ22"/>
-      <c r="AKK22"/>
-      <c r="AKL22"/>
-      <c r="AKM22"/>
-      <c r="AKN22"/>
-      <c r="AKO22"/>
-      <c r="AKP22"/>
-      <c r="AKQ22"/>
-      <c r="AKR22"/>
-      <c r="AKS22"/>
-      <c r="AKT22"/>
-      <c r="AKU22"/>
-      <c r="AKV22"/>
-      <c r="AKW22"/>
-      <c r="AKX22"/>
-      <c r="AKY22"/>
-      <c r="AKZ22"/>
-      <c r="ALA22"/>
-      <c r="ALB22"/>
-      <c r="ALC22"/>
-      <c r="ALD22"/>
-      <c r="ALE22"/>
-      <c r="ALF22"/>
-      <c r="ALG22"/>
-      <c r="ALH22"/>
-      <c r="ALI22"/>
-      <c r="ALJ22"/>
-      <c r="ALK22"/>
-      <c r="ALL22"/>
-      <c r="ALM22"/>
-      <c r="ALN22"/>
-      <c r="ALO22"/>
-      <c r="ALP22"/>
-      <c r="ALQ22"/>
-      <c r="ALR22"/>
-      <c r="ALS22"/>
-      <c r="ALT22"/>
-      <c r="ALU22"/>
-      <c r="ALV22"/>
-      <c r="ALW22"/>
-      <c r="ALX22"/>
-      <c r="ALY22"/>
-      <c r="ALZ22"/>
-      <c r="AMA22"/>
-      <c r="AMB22"/>
-      <c r="AMC22"/>
-      <c r="AMD22"/>
-      <c r="AME22"/>
-      <c r="AMF22"/>
-      <c r="AMG22"/>
-      <c r="AMH22"/>
-      <c r="AMI22"/>
-      <c r="AMJ22"/>
-      <c r="AMK22"/>
+      <c r="AKA22" s="10"/>
+      <c r="AKB22" s="10"/>
+      <c r="AKC22" s="10"/>
+      <c r="AKD22" s="10"/>
+      <c r="AKE22" s="10"/>
+      <c r="AKF22" s="10"/>
+      <c r="AKG22" s="10"/>
+      <c r="AKH22" s="10"/>
+      <c r="AKI22" s="10"/>
+      <c r="AKJ22" s="10"/>
+      <c r="AKK22" s="10"/>
+      <c r="AKL22" s="10"/>
+      <c r="AKM22" s="10"/>
+      <c r="AKN22" s="10"/>
+      <c r="AKO22" s="10"/>
+      <c r="AKP22" s="10"/>
+      <c r="AKQ22" s="10"/>
+      <c r="AKR22" s="10"/>
+      <c r="AKS22" s="10"/>
+      <c r="AKT22" s="10"/>
+      <c r="AKU22" s="10"/>
+      <c r="AKV22" s="10"/>
+      <c r="AKW22" s="10"/>
+      <c r="AKX22" s="10"/>
+      <c r="AKY22" s="10"/>
+      <c r="AKZ22" s="10"/>
+      <c r="ALA22" s="10"/>
+      <c r="ALB22" s="10"/>
+      <c r="ALC22" s="10"/>
+      <c r="ALD22" s="10"/>
+      <c r="ALE22" s="10"/>
+      <c r="ALF22" s="10"/>
+      <c r="ALG22" s="10"/>
+      <c r="ALH22" s="10"/>
+      <c r="ALI22" s="10"/>
+      <c r="ALJ22" s="10"/>
+      <c r="ALK22" s="10"/>
+      <c r="ALL22" s="10"/>
+      <c r="ALM22" s="10"/>
+      <c r="ALN22" s="10"/>
+      <c r="ALO22" s="10"/>
+      <c r="ALP22" s="10"/>
+      <c r="ALQ22" s="10"/>
+      <c r="ALR22" s="10"/>
+      <c r="ALS22" s="10"/>
+      <c r="ALT22" s="10"/>
+      <c r="ALU22" s="10"/>
+      <c r="ALV22" s="10"/>
+      <c r="ALW22" s="10"/>
+      <c r="ALX22" s="10"/>
+      <c r="ALY22" s="10"/>
+      <c r="ALZ22" s="10"/>
+      <c r="AMA22" s="10"/>
+      <c r="AMB22" s="10"/>
+      <c r="AMC22" s="10"/>
+      <c r="AMD22" s="10"/>
+      <c r="AME22" s="10"/>
+      <c r="AMF22" s="10"/>
+      <c r="AMG22" s="10"/>
+      <c r="AMH22" s="10"/>
+      <c r="AMI22" s="10"/>
+      <c r="AMJ22" s="10"/>
     </row>
-    <row r="23" spans="1:1025" x14ac:dyDescent="0.35">
-      <c r="A23" s="6">
+    <row r="23" spans="1:1024" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
         <v>20</v>
       </c>
-      <c r="D23" s="7" t="s">
+      <c r="C23" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="E23" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="6" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G22">
-    <sortCondition ref="G4:G22"/>
+  <sortState ref="A4:F22">
+    <sortCondition ref="F4:F22"/>
   </sortState>
   <mergeCells count="6">
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation errorTitle="BHXh" error="Chỉ chọn từ danh sách" promptTitle="BHXH" prompt="Chọn từ danh sách_x000a_Không chọn mặc định là Nam" sqref="G1" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation errorTitle="BHXh" error="Chỉ chọn từ danh sách" promptTitle="BHXH" prompt="Chọn từ danh sách_x000a_Không chọn mặc định là Nam" sqref="F1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation promptTitle="BHXH" prompt="Nhập ngày sinh theo kiểu hiển thị ngày sinh đã chọn" sqref="F1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation promptTitle="BHXH" prompt="Nhập ngày sinh theo kiểu hiển thị ngày sinh đã chọn" sqref="E1">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation promptTitle="BHXH" prompt="Chọn giới tính trên dánh sách._x000a_Không chọn mặc định là Nam" sqref="G3" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation promptTitle="BHXH" prompt="Chọn giới tính trên dánh sách._x000a_Không chọn mặc định là Nam" sqref="F3">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation promptTitle="BHXH" prompt="Nhập theo kiểu hiển thị ngày sinh đã chọn" sqref="F3:F1018" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation promptTitle="BHXH" prompt="Nhập theo kiểu hiển thị ngày sinh đã chọn" sqref="E3:E1018">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -70303,11 +70286,11 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" promptTitle="BHXH" prompt="Chọn giới tính trên dánh sách._x000a_Không chọn mặc định là Nam" xr:uid="{00000000-0002-0000-0000-000004000000}">
+        <x14:dataValidation type="list" promptTitle="BHXH" prompt="Chọn giới tính trên dánh sách._x000a_Không chọn mặc định là Nam">
           <x14:formula1>
             <xm:f>'D:\THUYHA\BHXH\[Danh sách lao động_Export_f805e7be-fcdd-4885-b21b-d44b16d36c9c.xlsx]DM khác'!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>G4:G1018</xm:sqref>
+          <xm:sqref>F4:F1018</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
